--- a/data/services_backup/09-12-2025-HNV_PCM_1ST_FLOOR_CPAN_10.123.138.193_connections.xlsx
+++ b/data/services_backup/09-12-2025-HNV_PCM_1ST_FLOOR_CPAN_10.123.138.193_connections.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="509">
   <si>
     <t>Id</t>
   </si>
@@ -301,444 +301,444 @@
     <t>25 Mbps</t>
   </si>
   <si>
+    <t>NOT IN CTD TX</t>
+  </si>
+  <si>
+    <t>0ca38b64-417c-4def-a288-dfe5ef1016c2</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>91bd40a2-2a21-495a-ab06-33adc9871f97</t>
+  </si>
+  <si>
+    <t>E-LS</t>
+  </si>
+  <si>
+    <t>318a9c43-9563-4be7-961f-9e221d7a7835</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>MAAN_EMS_LOGIN_CTD</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>10 Mbps</t>
+  </si>
+  <si>
+    <t>MAAN EMS LOGIN</t>
+  </si>
+  <si>
+    <t>c65050fe-1337-4866-890b-398cd9b9a4d6</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Telephone Bhawan</t>
+  </si>
+  <si>
+    <t>TELEPHONE BHAWAN B2/05</t>
+  </si>
+  <si>
+    <t>4c635008-3eb0-4246-bfa4-57dfcf85d48d</t>
+  </si>
+  <si>
+    <t>5123be70-eb5b-48a8-8ffa-4f3baa56cc19</t>
+  </si>
+  <si>
+    <t>d7d6d7dd-97fe-4193-a2d7-c75b01717a9f</t>
+  </si>
+  <si>
+    <t>E-TREE</t>
+  </si>
+  <si>
+    <t>a7b79a60-b262-45cc-80df-fdba78f4201c</t>
+  </si>
+  <si>
+    <t>10.123.142.1</t>
+  </si>
+  <si>
+    <t>319abdf0-0324-4f7e-a9f9-eec9e1134026</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>WIFI SARBTRA_4060</t>
+  </si>
+  <si>
+    <t>4060</t>
+  </si>
+  <si>
+    <t>25 mBPS</t>
+  </si>
+  <si>
+    <t>WIFI SARBTRA</t>
+  </si>
+  <si>
+    <t>0b702768-1c37-4e55-a948-b681b18ebe75</t>
+  </si>
+  <si>
+    <t>7db41e76-38e9-4059-bece-4238d3508d9b</t>
+  </si>
+  <si>
+    <t>00d7d93c-2cef-447e-817c-85e279800e13</t>
+  </si>
+  <si>
+    <t>1000293414_SONARPUR_BLRO_3824</t>
+  </si>
+  <si>
+    <t>3824</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>b2dba624-533d-48c2-ac79-6df541ab8054</t>
+  </si>
+  <si>
+    <t>Sonarpur Bhq</t>
+  </si>
+  <si>
+    <t>1000293414</t>
+  </si>
+  <si>
+    <t>8411e68d-3a48-4f3a-8fed-015d228cc59b</t>
+  </si>
+  <si>
+    <t>b72ea367-47e2-4cb6-af57-75fdbefa7cba</t>
+  </si>
+  <si>
+    <t>10.123.138.65</t>
+  </si>
+  <si>
+    <t>37d3d21a-b2f3-46b4-9831-38faf6caa6d7</t>
+  </si>
+  <si>
+    <t>1000123043_SBI_SUBHASGRAM_4031</t>
+  </si>
+  <si>
+    <t>4031</t>
+  </si>
+  <si>
+    <t>53f28861-be94-4f78-a6da-abd2afd6e7fa</t>
+  </si>
+  <si>
+    <t>SBI SUBHASGRAM</t>
+  </si>
+  <si>
+    <t>1000123043</t>
+  </si>
+  <si>
+    <t>314bff74-a98e-4d5f-90ad-d69373c019ad</t>
+  </si>
+  <si>
+    <t>9638089e-ff22-4a20-8645-c1049bb647bf</t>
+  </si>
+  <si>
+    <t>1000540738_BARUIPUR_POLYTECH_3723</t>
+  </si>
+  <si>
+    <t>3723</t>
+  </si>
+  <si>
+    <t>50 Mbps</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>5538422e-4955-4ae3-8e58-7e4e801aaeac</t>
+  </si>
+  <si>
+    <t>BARUIPUR POLYTECHNIC</t>
+  </si>
+  <si>
+    <t>1000540738</t>
+  </si>
+  <si>
+    <t>KALIGHAT B2/02</t>
+  </si>
+  <si>
+    <t>aaaf44d4-c7d0-457d-aeb3-6c9c1e002994</t>
+  </si>
+  <si>
+    <t>7b39371e-a516-4a54-b4b7-d159a156a702</t>
+  </si>
+  <si>
+    <t>10.123.138.1</t>
+  </si>
+  <si>
+    <t>f4a3f48a-d3ff-4def-93dc-33c8508bd914</t>
+  </si>
+  <si>
+    <t>1000293306_SONARPU_ADSR_4005</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>1000293306</t>
+  </si>
+  <si>
+    <t>10af1214-f384-4935-a4fd-3e5ce5a81408</t>
+  </si>
+  <si>
+    <t>2f8bf116-f930-448a-88f3-e40cc869e717</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.6-CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/2.5</t>
+  </si>
+  <si>
+    <t>1 GBps</t>
+  </si>
+  <si>
+    <t>CPAN DL</t>
+  </si>
+  <si>
+    <t>983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>RAJPUR SARKAR PARA BTS</t>
+  </si>
+  <si>
+    <t>RAJPUR SARKARPARA A1</t>
+  </si>
+  <si>
+    <t>61b21eeb-02d0-4660-b49e-72baff24942b</t>
+  </si>
+  <si>
+    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
+  </si>
+  <si>
+    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
+  </si>
+  <si>
+    <t>Optical Fiber</t>
+  </si>
+  <si>
+    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
+  </si>
+  <si>
+    <t>10.123.138.215</t>
+  </si>
+  <si>
+    <t>c9fcb82a-2c94-4b20-b715-80f50617202e</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 5 A1</t>
+  </si>
+  <si>
+    <t>a94272f1-8c95-49f7-b77a-f166727925b9</t>
+  </si>
+  <si>
+    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
+  </si>
+  <si>
+    <t>10.123.138.225</t>
+  </si>
+  <si>
+    <t>c896cad7-c927-4cdd-b9db-15160a4e4431</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
+  </si>
+  <si>
+    <t>FE/GE(E)</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 4 A1</t>
+  </si>
+  <si>
+    <t>edfd118f-28a4-4a83-8519-f42620e484f0</t>
+  </si>
+  <si>
+    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
+  </si>
+  <si>
+    <t>10.123.138.233</t>
+  </si>
+  <si>
+    <t>9d73c786-ac60-4932-b2d9-314d5123d672</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.9-CTD_HNV_HARINAVI EXCH_10.123.138.229/1.3</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 3 A1</t>
+  </si>
+  <si>
+    <t>dfab40f7-f6ea-4976-93a8-b816333bae7f</t>
+  </si>
+  <si>
+    <t>846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
+  </si>
+  <si>
+    <t>10.123.138.229</t>
+  </si>
+  <si>
+    <t>8e58af51-86f1-4c9b-9f19-c0b531bf19de</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.11-CTD_HNV_HARINAVI EXCH NODE 7_10.123.138.253/1.3</t>
+  </si>
+  <si>
+    <t>HARINAVI  NODE 7 A1</t>
+  </si>
+  <si>
+    <t>8464956b-d029-4be0-8418-ce8a4843bb71</t>
+  </si>
+  <si>
+    <t>c5db764c-f5d3-4c8f-aaa3-05a095ea008f</t>
+  </si>
+  <si>
+    <t>10.123.138.253</t>
+  </si>
+  <si>
+    <t>6f186807-c1e2-41a6-a804-14a3735c6f28</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/3.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.1</t>
+  </si>
+  <si>
+    <t>10 GBps</t>
+  </si>
+  <si>
+    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
+  </si>
+  <si>
+    <t>GOBINDAPUR</t>
+  </si>
+  <si>
+    <t>GOBINDAPUR B2</t>
+  </si>
+  <si>
+    <t>066dc680-98c6-4b7a-82b6-06a47be03c82</t>
+  </si>
+  <si>
+    <t>dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
+  </si>
+  <si>
+    <t>10.123.138.195</t>
+  </si>
+  <si>
+    <t>84e7f63b-3109-422a-b88c-17cbd6cb9571</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.2-CTD_HNV_BARUI PUR RAIL CROSSING BTS_10.123.138.216/1.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>BARUIPUR RAIL CROSSING BTS</t>
+  </si>
+  <si>
+    <t>BARUIPUR RAIL CROSSING A1</t>
+  </si>
+  <si>
+    <t>8ad7b79b-d4d7-4be7-98dd-0b8ce92e8210</t>
+  </si>
+  <si>
+    <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
+  </si>
+  <si>
+    <t>1160d8b7-c01d-4eaa-b130-75ac245bbd4e</t>
+  </si>
+  <si>
+    <t>10.123.138.216</t>
+  </si>
+  <si>
+    <t>a57d690f-bb7f-47a4-96f5-e6f3c1accf4c</t>
+  </si>
+  <si>
+    <t>1000293191_westbengalindustry_development_vlan-3832</t>
+  </si>
+  <si>
+    <t>3832</t>
+  </si>
+  <si>
+    <t>1000293191</t>
+  </si>
+  <si>
+    <t>f3dc0c4d-637f-460b-a815-28798f65e972</t>
+  </si>
+  <si>
+    <t>74aec8a2-c32d-411e-b4bb-cdd61d3bca4d</t>
+  </si>
+  <si>
+    <t>LMG_HNV_3454</t>
+  </si>
+  <si>
+    <t>3454</t>
+  </si>
+  <si>
+    <t>20 Mbps</t>
+  </si>
+  <si>
+    <t>LMG</t>
+  </si>
+  <si>
+    <t>aaf09786-4187-4aa7-b7cf-6437c5d91841</t>
+  </si>
+  <si>
+    <t>4b0dd6af-fd80-4fb8-ba6f-ae335ae7099c</t>
+  </si>
+  <si>
+    <t>HNV-BSNL-OLT-P1</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>10d81910-437a-45c3-9764-bf36a742898e</t>
+  </si>
+  <si>
+    <t>HARINAVI BSNL OLT</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>550 Mbps</t>
+  </si>
+  <si>
     <t>OLT</t>
   </si>
   <si>
     <t>b34e5c12-9557-4a9d-a901-6e2ab561dcc0</t>
   </si>
   <si>
-    <t>NOT IN CTD TX</t>
-  </si>
-  <si>
-    <t>0ca38b64-417c-4def-a288-dfe5ef1016c2</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>91bd40a2-2a21-495a-ab06-33adc9871f97</t>
-  </si>
-  <si>
-    <t>E-LS</t>
-  </si>
-  <si>
-    <t>318a9c43-9563-4be7-961f-9e221d7a7835</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>MAAN_EMS_LOGIN_CTD</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>10 Mbps</t>
-  </si>
-  <si>
-    <t>MAAN EMS LOGIN</t>
-  </si>
-  <si>
-    <t>c65050fe-1337-4866-890b-398cd9b9a4d6</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Telephone Bhawan</t>
-  </si>
-  <si>
-    <t>TELEPHONE BHAWAN B2/05</t>
-  </si>
-  <si>
-    <t>4c635008-3eb0-4246-bfa4-57dfcf85d48d</t>
-  </si>
-  <si>
-    <t>5123be70-eb5b-48a8-8ffa-4f3baa56cc19</t>
-  </si>
-  <si>
-    <t>d7d6d7dd-97fe-4193-a2d7-c75b01717a9f</t>
-  </si>
-  <si>
-    <t>E-TREE</t>
-  </si>
-  <si>
-    <t>a7b79a60-b262-45cc-80df-fdba78f4201c</t>
-  </si>
-  <si>
-    <t>10.123.142.1</t>
-  </si>
-  <si>
-    <t>319abdf0-0324-4f7e-a9f9-eec9e1134026</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>WIFI SARBTRA_4060</t>
-  </si>
-  <si>
-    <t>4060</t>
-  </si>
-  <si>
-    <t>25 mBPS</t>
-  </si>
-  <si>
-    <t>WIFI SARBTRA</t>
-  </si>
-  <si>
-    <t>0b702768-1c37-4e55-a948-b681b18ebe75</t>
-  </si>
-  <si>
-    <t>7db41e76-38e9-4059-bece-4238d3508d9b</t>
-  </si>
-  <si>
-    <t>00d7d93c-2cef-447e-817c-85e279800e13</t>
-  </si>
-  <si>
-    <t>1000293414_SONARPUR_BLRO_3824</t>
-  </si>
-  <si>
-    <t>3824</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>b2dba624-533d-48c2-ac79-6df541ab8054</t>
-  </si>
-  <si>
-    <t>Sonarpur Bhq</t>
-  </si>
-  <si>
-    <t>1000293414</t>
-  </si>
-  <si>
-    <t>8411e68d-3a48-4f3a-8fed-015d228cc59b</t>
-  </si>
-  <si>
-    <t>b72ea367-47e2-4cb6-af57-75fdbefa7cba</t>
-  </si>
-  <si>
-    <t>10.123.138.65</t>
-  </si>
-  <si>
-    <t>37d3d21a-b2f3-46b4-9831-38faf6caa6d7</t>
-  </si>
-  <si>
-    <t>1000123043_SBI_SUBHASGRAM_4031</t>
-  </si>
-  <si>
-    <t>4031</t>
-  </si>
-  <si>
-    <t>53f28861-be94-4f78-a6da-abd2afd6e7fa</t>
-  </si>
-  <si>
-    <t>SBI SUBHASGRAM</t>
-  </si>
-  <si>
-    <t>1000123043</t>
-  </si>
-  <si>
-    <t>314bff74-a98e-4d5f-90ad-d69373c019ad</t>
-  </si>
-  <si>
-    <t>9638089e-ff22-4a20-8645-c1049bb647bf</t>
-  </si>
-  <si>
-    <t>1000540738_BARUIPUR_POLYTECH_3723</t>
-  </si>
-  <si>
-    <t>3723</t>
-  </si>
-  <si>
-    <t>50 Mbps</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>5538422e-4955-4ae3-8e58-7e4e801aaeac</t>
-  </si>
-  <si>
-    <t>BARUIPUR POLYTECHNIC</t>
-  </si>
-  <si>
-    <t>1000540738</t>
-  </si>
-  <si>
-    <t>KALIGHAT B2/02</t>
-  </si>
-  <si>
-    <t>aaaf44d4-c7d0-457d-aeb3-6c9c1e002994</t>
-  </si>
-  <si>
-    <t>7b39371e-a516-4a54-b4b7-d159a156a702</t>
-  </si>
-  <si>
-    <t>10.123.138.1</t>
-  </si>
-  <si>
-    <t>f4a3f48a-d3ff-4def-93dc-33c8508bd914</t>
-  </si>
-  <si>
-    <t>1000293306_SONARPU_ADSR_4005</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>1000293306</t>
-  </si>
-  <si>
-    <t>10af1214-f384-4935-a4fd-3e5ce5a81408</t>
-  </si>
-  <si>
-    <t>2f8bf116-f930-448a-88f3-e40cc869e717</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.6-CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/2.5</t>
-  </si>
-  <si>
-    <t>1 GBps</t>
-  </si>
-  <si>
-    <t>CPAN DL</t>
-  </si>
-  <si>
-    <t>983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKAR PARA BTS</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKARPARA A1</t>
-  </si>
-  <si>
-    <t>61b21eeb-02d0-4660-b49e-72baff24942b</t>
-  </si>
-  <si>
-    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
-  </si>
-  <si>
-    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
-  </si>
-  <si>
-    <t>Optical Fiber</t>
-  </si>
-  <si>
-    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
-  </si>
-  <si>
-    <t>10.123.138.215</t>
-  </si>
-  <si>
-    <t>c9fcb82a-2c94-4b20-b715-80f50617202e</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 5 A1</t>
-  </si>
-  <si>
-    <t>a94272f1-8c95-49f7-b77a-f166727925b9</t>
-  </si>
-  <si>
-    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
-  </si>
-  <si>
-    <t>10.123.138.225</t>
-  </si>
-  <si>
-    <t>c896cad7-c927-4cdd-b9db-15160a4e4431</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
-  </si>
-  <si>
-    <t>FE/GE(E)</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 4 A1</t>
-  </si>
-  <si>
-    <t>edfd118f-28a4-4a83-8519-f42620e484f0</t>
-  </si>
-  <si>
-    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
-  </si>
-  <si>
-    <t>10.123.138.233</t>
-  </si>
-  <si>
-    <t>9d73c786-ac60-4932-b2d9-314d5123d672</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.9-CTD_HNV_HARINAVI EXCH_10.123.138.229/1.3</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 3 A1</t>
-  </si>
-  <si>
-    <t>dfab40f7-f6ea-4976-93a8-b816333bae7f</t>
-  </si>
-  <si>
-    <t>846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
-  </si>
-  <si>
-    <t>10.123.138.229</t>
-  </si>
-  <si>
-    <t>8e58af51-86f1-4c9b-9f19-c0b531bf19de</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.11-CTD_HNV_HARINAVI EXCH NODE 7_10.123.138.253/1.3</t>
-  </si>
-  <si>
-    <t>HARINAVI  NODE 7 A1</t>
-  </si>
-  <si>
-    <t>8464956b-d029-4be0-8418-ce8a4843bb71</t>
-  </si>
-  <si>
-    <t>c5db764c-f5d3-4c8f-aaa3-05a095ea008f</t>
-  </si>
-  <si>
-    <t>10.123.138.253</t>
-  </si>
-  <si>
-    <t>6f186807-c1e2-41a6-a804-14a3735c6f28</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/3.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.1</t>
-  </si>
-  <si>
-    <t>10 GBps</t>
-  </si>
-  <si>
-    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR B2</t>
-  </si>
-  <si>
-    <t>066dc680-98c6-4b7a-82b6-06a47be03c82</t>
-  </si>
-  <si>
-    <t>dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
-  </si>
-  <si>
-    <t>10.123.138.195</t>
-  </si>
-  <si>
-    <t>84e7f63b-3109-422a-b88c-17cbd6cb9571</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.2-CTD_HNV_BARUI PUR RAIL CROSSING BTS_10.123.138.216/1.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING BTS</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING A1</t>
-  </si>
-  <si>
-    <t>8ad7b79b-d4d7-4be7-98dd-0b8ce92e8210</t>
-  </si>
-  <si>
-    <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
-  </si>
-  <si>
-    <t>1160d8b7-c01d-4eaa-b130-75ac245bbd4e</t>
-  </si>
-  <si>
-    <t>10.123.138.216</t>
-  </si>
-  <si>
-    <t>a57d690f-bb7f-47a4-96f5-e6f3c1accf4c</t>
-  </si>
-  <si>
-    <t>1000293191_westbengalindustry_development_vlan-3832</t>
-  </si>
-  <si>
-    <t>3832</t>
-  </si>
-  <si>
-    <t>1000293191</t>
-  </si>
-  <si>
-    <t>f3dc0c4d-637f-460b-a815-28798f65e972</t>
-  </si>
-  <si>
-    <t>74aec8a2-c32d-411e-b4bb-cdd61d3bca4d</t>
-  </si>
-  <si>
-    <t>LMG_HNV_3454</t>
-  </si>
-  <si>
-    <t>3454</t>
-  </si>
-  <si>
-    <t>20 Mbps</t>
-  </si>
-  <si>
-    <t>LMG</t>
-  </si>
-  <si>
-    <t>aaf09786-4187-4aa7-b7cf-6437c5d91841</t>
-  </si>
-  <si>
-    <t>4b0dd6af-fd80-4fb8-ba6f-ae335ae7099c</t>
-  </si>
-  <si>
-    <t>HNV-BSNL-OLT-P1</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>10d81910-437a-45c3-9764-bf36a742898e</t>
-  </si>
-  <si>
-    <t>HARINAVI BSNL OLT</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>550 Mbps</t>
-  </si>
-  <si>
     <t>Multi-Access Aggregation Node</t>
   </si>
   <si>
@@ -1055,6 +1055,489 @@
   </si>
   <si>
     <t>ba7ce1f6-49fe-4834-b249-4262e54bb3b8</t>
+  </si>
+  <si>
+    <t>c67893ca-0295-4cf5-ba4a-8db73fe4a799</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>CTD_HNV_SONARPUR_10.123.138.199/3.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/5.4</t>
+  </si>
+  <si>
+    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
+  </si>
+  <si>
+    <t>SONARPUR</t>
+  </si>
+  <si>
+    <t>SONARPUR B1</t>
+  </si>
+  <si>
+    <t>cee54398-9a5a-4b4c-80f3-08e188852efa</t>
+  </si>
+  <si>
+    <t>ce047b30-33c8-425b-b500-5b33e043bf9c</t>
+  </si>
+  <si>
+    <t>10.123.138.199</t>
+  </si>
+  <si>
+    <t>b0dd4c07-f892-4253-b618-7435f6a4520e</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HNV TX A1_10.123.138.217/1.5-CTD_HNV_HARINAVI_10.123.138.193_GNE/5.2</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 8 A1</t>
+  </si>
+  <si>
+    <t>a8d9357f-ad55-42c3-8758-5ec087dcda53</t>
+  </si>
+  <si>
+    <t>fa97a97e-ffe1-4921-b13a-0b90e324e2b5</t>
+  </si>
+  <si>
+    <t>10.123.138.217</t>
+  </si>
+  <si>
+    <t>ca46e0ac-c154-4d74-a4fb-4271daa4429d</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/5.1-CTD_HNV_ BRAHMAPUR_10.123.138.203/3.1</t>
+  </si>
+  <si>
+    <t>BRAHMAPUR</t>
+  </si>
+  <si>
+    <t>BRAHMAPUR B1</t>
+  </si>
+  <si>
+    <t>a679bacf-dfef-4916-a751-e73e1bcfbe7e</t>
+  </si>
+  <si>
+    <t>6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
+  </si>
+  <si>
+    <t>b6f14e2b-11a4-46c9-96eb-c41d9564bcb3</t>
+  </si>
+  <si>
+    <t>10.123.138.203</t>
+  </si>
+  <si>
+    <t>c2175b22-4e7d-4965-934c-f22390a014f8</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>SCN COMMUNICATION(A P NAGAR)</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
+  </si>
+  <si>
+    <t>AP NAGAR</t>
+  </si>
+  <si>
+    <t>AP NAGAR B1</t>
+  </si>
+  <si>
+    <t>348fc9e0-1f58-4e7f-9251-7a1975a0b407</t>
+  </si>
+  <si>
+    <t>d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
+  </si>
+  <si>
+    <t>10.123.138.198</t>
+  </si>
+  <si>
+    <t>90b43fa0-57bb-4577-a54d-1f17ecd32965</t>
+  </si>
+  <si>
+    <t>BARUIPUR BBNL OLT</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>700 Mbps</t>
+  </si>
+  <si>
+    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
+  </si>
+  <si>
+    <t>BARUIPUR</t>
+  </si>
+  <si>
+    <t>BARUIPUR B1</t>
+  </si>
+  <si>
+    <t>8a4c73b0-81d7-4810-94f7-6ffcf35cbe3a</t>
+  </si>
+  <si>
+    <t>f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
+  </si>
+  <si>
+    <t>10.123.138.196</t>
+  </si>
+  <si>
+    <t>63c89d46-9bba-4dd5-9b00-47b0103aa9c5</t>
+  </si>
+  <si>
+    <t>LMG_BORAL_3457</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>15 Mbps</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
+  </si>
+  <si>
+    <t>BORAL</t>
+  </si>
+  <si>
+    <t>BORAL A1</t>
+  </si>
+  <si>
+    <t>c76740b6-f5ac-4c11-ae03-293f6926777b</t>
+  </si>
+  <si>
+    <t>a3f1bd20-41d7-489a-ab31-dc8c3412e0f6</t>
+  </si>
+  <si>
+    <t>10.123.29.225</t>
+  </si>
+  <si>
+    <t>c594e363-13de-4c57-843e-819f4cc8ca06</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>ADITI ENTERPRISE(JOGIBATTALA BTS)_3700</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>549 Mbps</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>dea33be8-45f3-4823-9366-654f63ba67f2</t>
+  </si>
+  <si>
+    <t>JOGIBARTALA BTS</t>
+  </si>
+  <si>
+    <t>JOGIBARTALA A1</t>
+  </si>
+  <si>
+    <t>53060e9c-b20f-4e5f-a146-1de53264f83e</t>
+  </si>
+  <si>
+    <t>0300401d-2969-4703-9bc8-0a1b41f7add3</t>
+  </si>
+  <si>
+    <t>10.123.138.208</t>
+  </si>
+  <si>
+    <t>8dca369f-5224-4081-ad8c-f250e23f7964</t>
+  </si>
+  <si>
+    <t>562c0eea-6b15-4d17-b08b-e862450fbedc</t>
+  </si>
+  <si>
+    <t>M/S TIPU ELECTRONICS_2254</t>
+  </si>
+  <si>
+    <t>2254</t>
+  </si>
+  <si>
+    <t>249 Mbps</t>
+  </si>
+  <si>
+    <t>97b89189-6cb8-40e3-aec9-61099d3d11b7</t>
+  </si>
+  <si>
+    <t>dfb38e5e-edda-4170-b812-be1067bccd2d</t>
+  </si>
+  <si>
+    <t>BTS 4G-NARENDRAPUR-III</t>
+  </si>
+  <si>
+    <t>1053,1953,2953,3953</t>
+  </si>
+  <si>
+    <t>175 Mbps</t>
+  </si>
+  <si>
+    <t>BTS 4G</t>
+  </si>
+  <si>
+    <t>ef21f735-94e1-448f-9b17-54f0145004e0</t>
+  </si>
+  <si>
+    <t>e1e3119d-5963-4202-9e63-3537e7ef7ffb</t>
+  </si>
+  <si>
+    <t>NARENDRAPUR-III BTS</t>
+  </si>
+  <si>
+    <t>HARINAVI A1</t>
+  </si>
+  <si>
+    <t>WEBSOU2194 /Z2GJDPIPJDP2462 /Z3GJDPIPJDP5462</t>
+  </si>
+  <si>
+    <t>ba26d922-c79f-4b14-b7d8-82287efdcad5</t>
+  </si>
+  <si>
+    <t>a2c86b2a-34b8-408f-bfe9-10d7278bee18</t>
+  </si>
+  <si>
+    <t>10.123.138.238</t>
+  </si>
+  <si>
+    <t>62c7816b-54b4-477c-9578-ef4d9a546308</t>
+  </si>
+  <si>
+    <t>M/S LALTU CABLE  LANGALBERIA_3137</t>
+  </si>
+  <si>
+    <t>3137</t>
+  </si>
+  <si>
+    <t>250 Mbps</t>
+  </si>
+  <si>
+    <t>c0273662-3ba4-4967-b4b9-7dcb0b1dc2e4</t>
+  </si>
+  <si>
+    <t>LANGALBERIA GP</t>
+  </si>
+  <si>
+    <t>8a187c3f-304b-4d85-9051-aca321e73800</t>
+  </si>
+  <si>
+    <t>1a547a73-b460-4c8f-854b-07c893844fc0</t>
+  </si>
+  <si>
+    <t>LMG_AP_NAGAR_3455</t>
+  </si>
+  <si>
+    <t>3455</t>
+  </si>
+  <si>
+    <t>bcd8bb71-39c9-4dfd-9f81-c4a5107787e7</t>
+  </si>
+  <si>
+    <t>55b8c265-00f1-4553-9ae2-6b719d072586</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>MICRO MULTIVISION DRDO OLT_3681</t>
+  </si>
+  <si>
+    <t>3861</t>
+  </si>
+  <si>
+    <t>650 Mbps</t>
+  </si>
+  <si>
+    <t>1aeeac44-6574-4a1e-b796-a1598890b74e</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO SERVER ROOM</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO DATA CENTRE</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO A1</t>
+  </si>
+  <si>
+    <t>4d0a0c78-0e9c-4c7a-bb28-ed4538e4c94b</t>
+  </si>
+  <si>
+    <t>51b21244-07e3-4464-ad7b-4ce70805d559</t>
+  </si>
+  <si>
+    <t>3787ddde-544f-4658-97b4-01dcc10217d8</t>
+  </si>
+  <si>
+    <t>10.123.136.35</t>
+  </si>
+  <si>
+    <t>521da643-177a-4fad-8465-758cea8b3d5f</t>
+  </si>
+  <si>
+    <t>208791/318368/241780/007950_ADITI_ENT_LC_1744/1607/1639/1653</t>
+  </si>
+  <si>
+    <t>1744/1607/1639/1653</t>
+  </si>
+  <si>
+    <t>14 Mbps</t>
+  </si>
+  <si>
+    <t>796c04b6-085e-4072-a277-18aeddc79043</t>
+  </si>
+  <si>
+    <t>a36023a0-81e7-4c72-a137-f1a9f0b8fae2</t>
+  </si>
+  <si>
+    <t>HARINAVI_10.123.138.193_GNE/5.7==Harinavi -B3(CAT2) /1/ETH-1-1-17</t>
+  </si>
+  <si>
+    <t>CPAN MAAN Link</t>
+  </si>
+  <si>
+    <t>bad8fb63-8d85-4ea3-ba41-7151076cd0ef</t>
+  </si>
+  <si>
+    <t>ETH-1-1-17</t>
+  </si>
+  <si>
+    <t>16b1003f-4108-47aa-889a-6c210c3fafda</t>
+  </si>
+  <si>
+    <t>1fbd2fd7-b12e-4d5e-993b-72b15d7661ff</t>
+  </si>
+  <si>
+    <t>HARINAVI_10.123.138.193_GNE/5.8==Harinavi -B3(CAT2) /1/ETH-1-1-18</t>
+  </si>
+  <si>
+    <t>ETH-1-1-18</t>
+  </si>
+  <si>
+    <t>c46f6ef3-7b63-4bc5-9ad1-65f28194b1a2</t>
+  </si>
+  <si>
+    <t>11edfb7d-69c0-454e-bcb7-f963cb9cbe20</t>
+  </si>
+  <si>
+    <t>HARINAVI_10.123.138.193_GNE/5.9==Harinavi -B3(CAT2) /1/ETH-1-1-19</t>
+  </si>
+  <si>
+    <t>ETH-1-1-19</t>
+  </si>
+  <si>
+    <t>1f50aff6-7cb1-4bd9-84d9-b17dd8f4554e</t>
+  </si>
+  <si>
+    <t>20747a4d-6bf4-4eda-8eb6-9b6a3da7611a</t>
+  </si>
+  <si>
+    <t>HARINAVI_10.123.138.193_GNE/5.10==Harinavi -B3(CAT2) /1/ETH-1-1-20</t>
+  </si>
+  <si>
+    <t>ETH-1-1-20</t>
+  </si>
+  <si>
+    <t>36ecd44c-bda7-46a8-8420-c07369aaab08</t>
+  </si>
+  <si>
+    <t>33d7a369-1dfa-4e90-944a-f067ab050cb0</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>CTD_HNV_AP NAGAR_10.123.138.198/4.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.1</t>
+  </si>
+  <si>
+    <t>214b5822-09c2-4c2e-a864-627dee330b74</t>
+  </si>
+  <si>
+    <t>2a236d36-149a-4ea1-a0df-faf33ff0ec39</t>
+  </si>
+  <si>
+    <t>HARINAVI_10.123.138.193_GNE/6.2==Harinavi -B3(CAT2) /1/ETH-1-1-1</t>
+  </si>
+  <si>
+    <t>ETH-1-1-1</t>
+  </si>
+  <si>
+    <t>4fb936ab-5a52-4171-8c1d-27dfba6c0d98</t>
+  </si>
+  <si>
+    <t>7568961c-a340-48a1-93cd-4363b57b7b4e</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>HARINAVI_10.123.138.193_GNE/6.3==Harinavi -B3(CAT2) /1/ETH-1-1-3</t>
+  </si>
+  <si>
+    <t>ETH-1-1-3</t>
+  </si>
+  <si>
+    <t>0946d238-2377-4f97-b268-0d17a53c0497</t>
+  </si>
+  <si>
+    <t>4fafb5e4-84d8-4ee0-b2b8-e1668b4bd009</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/4.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.4</t>
+  </si>
+  <si>
+    <t>eff705a3-7dff-41b4-8764-28b1c34b26f3</t>
+  </si>
+  <si>
+    <t>d56a3a23-961f-4b88-8ab3-f24013bd78fa</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>CTD_JDP_AWANTIPUR_10.123.138.200/3.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.5</t>
+  </si>
+  <si>
+    <t>c56c403c-c441-49ff-bbdc-b6d36b364d0c</t>
+  </si>
+  <si>
+    <t>ABANTIPUR</t>
+  </si>
+  <si>
+    <t>285294ec-5ea4-4535-8f99-d744acb6a1eb</t>
+  </si>
+  <si>
+    <t>145d8ea8-0748-4bba-b3e1-f81bb70be5fa</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.7</t>
+  </si>
+  <si>
+    <t>25459ef3-6fbb-49ec-aeac-7cb8de958b46</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1532,15 +2015,15 @@
     <col min="17" max="17" width="30" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
-    <col min="20" max="21" width="23" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
     <col min="22" max="24" width="30" customWidth="1"/>
     <col min="25" max="25" width="29" customWidth="1"/>
     <col min="26" max="26" width="30" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
     <col min="29" max="29" width="27" customWidth="1"/>
-    <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="30" customWidth="1"/>
+    <col min="30" max="31" width="30" customWidth="1"/>
     <col min="32" max="32" width="20" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
     <col min="34" max="34" width="29" customWidth="1"/>
@@ -2003,13 +2486,13 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
       <c r="O4" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
@@ -2038,25 +2521,25 @@
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM4" s="2" t="s">
         <v>74</v>
@@ -2087,28 +2570,28 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -2117,53 +2600,53 @@
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
       <c r="O5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="S5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -2172,13 +2655,13 @@
         <v>70</v>
       </c>
       <c r="AJ5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="AM5" s="6" t="s">
         <v>74</v>
@@ -2190,14 +2673,14 @@
         <v>53</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8">
         <v>45999.479801747686</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6" t="s">
@@ -2213,28 +2696,28 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2243,13 +2726,13 @@
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2" t="s">
@@ -2278,10 +2761,10 @@
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -2291,10 +2774,10 @@
       </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AM6" s="2" t="s">
         <v>74</v>
@@ -2325,7 +2808,7 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>53</v>
@@ -2340,10 +2823,10 @@
         <v>56</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>59</v>
@@ -2364,13 +2847,13 @@
         <v>61</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>54</v>
@@ -2391,7 +2874,7 @@
         <v>66</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>54</v>
@@ -2401,7 +2884,7 @@
       </c>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -2428,14 +2911,14 @@
         <v>53</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8">
         <v>45999.505829988426</v>
       </c>
       <c r="AS7" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AT7" s="6"/>
       <c r="AU7" s="6" t="s">
@@ -2451,7 +2934,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -2466,10 +2949,10 @@
         <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>59</v>
@@ -2493,10 +2976,10 @@
         <v>62</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>54</v>
@@ -2517,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>54</v>
@@ -2527,7 +3010,7 @@
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2577,7 +3060,7 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>53</v>
@@ -2592,13 +3075,13 @@
         <v>56</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2616,13 +3099,13 @@
         <v>61</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>54</v>
@@ -2643,17 +3126,17 @@
         <v>66</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
@@ -2680,14 +3163,14 @@
         <v>53</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8">
         <v>45999.522948611106</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AT9" s="6"/>
       <c r="AU9" s="6" t="s">
@@ -2703,7 +3186,7 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>53</v>
@@ -2718,10 +3201,10 @@
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>59</v>
@@ -2769,7 +3252,7 @@
         <v>65</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>68</v>
@@ -2779,7 +3262,7 @@
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2801,7 +3284,7 @@
         <v>75</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>53</v>
@@ -2815,7 +3298,7 @@
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AV10" s="4">
         <v>45999.448491863426</v>
@@ -2827,26 +3310,26 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2855,51 +3338,51 @@
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
       <c r="O11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="6" t="s">
+      <c r="S11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
@@ -2908,13 +3391,13 @@
         <v>70</v>
       </c>
       <c r="AJ11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL11" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="AM11" s="6"/>
       <c r="AN11" s="6" t="s">
@@ -2924,14 +3407,14 @@
         <v>53</v>
       </c>
       <c r="AP11" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8">
         <v>45999.44875991898</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6" t="s">
@@ -2947,7 +3430,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
@@ -2959,14 +3442,14 @@
         <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2975,16 +3458,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
       <c r="O12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>70</v>
@@ -3015,11 +3498,11 @@
         <v>54</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3031,10 +3514,10 @@
         <v>70</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2" t="s">
@@ -3044,14 +3527,14 @@
         <v>53</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4">
         <v>45999.44846886574</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2" t="s">
@@ -3067,7 +3550,7 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>53</v>
@@ -3079,14 +3562,14 @@
         <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3095,16 +3578,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
       <c r="O13" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>70</v>
@@ -3135,11 +3618,11 @@
         <v>54</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
@@ -3151,10 +3634,10 @@
         <v>70</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM13" s="6"/>
       <c r="AN13" s="6" t="s">
@@ -3164,14 +3647,14 @@
         <v>53</v>
       </c>
       <c r="AP13" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8">
         <v>45999.44848869213</v>
       </c>
       <c r="AS13" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AT13" s="6"/>
       <c r="AU13" s="6" t="s">
@@ -3187,26 +3670,26 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3215,16 +3698,16 @@
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
       <c r="O14" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>70</v>
@@ -3255,11 +3738,11 @@
         <v>54</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3271,10 +3754,10 @@
         <v>70</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2" t="s">
@@ -3284,14 +3767,14 @@
         <v>53</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4">
         <v>45999.44846274305</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2" t="s">
@@ -3307,26 +3790,26 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3335,16 +3818,16 @@
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
       <c r="O15" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>70</v>
@@ -3375,11 +3858,11 @@
         <v>54</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
@@ -3391,10 +3874,10 @@
         <v>70</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL15" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6" t="s">
@@ -3404,14 +3887,14 @@
         <v>53</v>
       </c>
       <c r="AP15" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8">
         <v>45999.448474687495</v>
       </c>
       <c r="AS15" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AT15" s="6"/>
       <c r="AU15" s="6" t="s">
@@ -3427,26 +3910,26 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3455,22 +3938,22 @@
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
       <c r="O16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>54</v>
@@ -3488,18 +3971,18 @@
         <v>65</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3508,13 +3991,13 @@
         <v>70</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2" t="s">
@@ -3524,14 +4007,14 @@
         <v>53</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4">
         <v>45999.448772233794</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2" t="s">
@@ -3547,26 +4030,26 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3575,17 +4058,17 @@
       <c r="M17" s="6"/>
       <c r="N17" s="7"/>
       <c r="O17" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P17" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R17" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="S17" s="6" t="s">
         <v>70</v>
       </c>
@@ -3608,18 +4091,18 @@
         <v>65</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
@@ -3628,13 +4111,13 @@
         <v>70</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6" t="s">
@@ -3644,14 +4127,14 @@
         <v>53</v>
       </c>
       <c r="AP17" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8">
         <v>45999.448775173616</v>
       </c>
       <c r="AS17" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AT17" s="6"/>
       <c r="AU17" s="6" t="s">
@@ -3667,7 +4150,7 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>53</v>
@@ -3682,10 +4165,10 @@
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>59</v>
@@ -3706,7 +4189,7 @@
         <v>61</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>70</v>
@@ -3733,7 +4216,7 @@
         <v>66</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>54</v>
@@ -3743,7 +4226,7 @@
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -3770,14 +4253,14 @@
         <v>53</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4">
         <v>45999.46374924769</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2" t="s">
@@ -3793,7 +4276,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>53</v>
@@ -3808,13 +4291,13 @@
         <v>92</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3823,13 +4306,13 @@
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
       <c r="O19" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>92</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6" t="s">
@@ -3858,27 +4341,27 @@
       </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM19" s="6" t="s">
         <v>74</v>
@@ -3909,7 +4392,7 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
@@ -3924,13 +4407,13 @@
         <v>92</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3939,13 +4422,13 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
       <c r="O20" s="2" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
@@ -3980,7 +4463,7 @@
         <v>243</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE20" s="2" t="s">
         <v>244</v>
@@ -3988,19 +4471,19 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL20" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL20" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AM20" s="2" t="s">
         <v>74</v>
@@ -4047,7 +4530,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>248</v>
@@ -4056,7 +4539,7 @@
         <v>249</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -4065,13 +4548,13 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6" t="s">
@@ -4106,7 +4589,7 @@
         <v>243</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>250</v>
@@ -4114,19 +4597,19 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL21" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL21" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="AM21" s="6" t="s">
         <v>74</v>
@@ -4182,7 +4665,7 @@
         <v>253</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -4191,13 +4674,13 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
       <c r="O22" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
@@ -4226,7 +4709,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>254</v>
@@ -4234,17 +4717,17 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM22" s="2" t="s">
         <v>74</v>
@@ -4296,7 +4779,7 @@
         <v>257</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -4305,13 +4788,13 @@
       <c r="M23" s="6"/>
       <c r="N23" s="7"/>
       <c r="O23" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>92</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6" t="s">
@@ -4340,7 +4823,7 @@
       </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>258</v>
@@ -4353,10 +4836,10 @@
       </c>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>74</v>
@@ -4417,13 +4900,13 @@
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
       <c r="O24" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>260</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
@@ -4452,7 +4935,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE24" s="2" t="s">
         <v>264</v>
@@ -4460,17 +4943,17 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM24" s="2" t="s">
         <v>74</v>
@@ -4522,7 +5005,7 @@
         <v>268</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -4531,13 +5014,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
       <c r="O25" s="6" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6" t="s">
@@ -4566,7 +5049,7 @@
       </c>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>269</v>
@@ -4574,17 +5057,17 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI25" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM25" s="6" t="s">
         <v>74</v>
@@ -4636,7 +5119,7 @@
         <v>272</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -4645,13 +5128,13 @@
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
       <c r="O26" s="2" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>260</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
@@ -4680,7 +5163,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>273</v>
@@ -4688,17 +5171,17 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI26" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM26" s="2" t="s">
         <v>74</v>
@@ -4860,7 +5343,7 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -4948,7 +5431,7 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4957,16 +5440,16 @@
       <c r="M29" s="6"/>
       <c r="N29" s="7"/>
       <c r="O29" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>288</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>70</v>
@@ -5013,10 +5496,10 @@
         <v>293</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM29" s="6" t="s">
         <v>74</v>
@@ -5063,14 +5546,14 @@
         <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>297</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -5079,16 +5562,16 @@
       <c r="M30" s="2"/>
       <c r="N30" s="3"/>
       <c r="O30" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>70</v>
@@ -5135,10 +5618,10 @@
         <v>301</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM30" s="2" t="s">
         <v>302</v>
@@ -5192,7 +5675,7 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -5201,16 +5684,16 @@
       <c r="M31" s="6"/>
       <c r="N31" s="7"/>
       <c r="O31" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>306</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>70</v>
@@ -5257,10 +5740,10 @@
         <v>311</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM31" s="6" t="s">
         <v>74</v>
@@ -5314,7 +5797,7 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5323,16 +5806,16 @@
       <c r="M32" s="2"/>
       <c r="N32" s="3"/>
       <c r="O32" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>315</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>317</v>
@@ -5379,10 +5862,10 @@
         <v>322</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM32" s="2" t="s">
         <v>74</v>
@@ -5436,7 +5919,7 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -5445,13 +5928,13 @@
       <c r="M33" s="6"/>
       <c r="N33" s="7"/>
       <c r="O33" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>326</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>328</v>
@@ -5558,7 +6041,7 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5567,13 +6050,13 @@
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
       <c r="O34" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>334</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>328</v>
@@ -5607,7 +6090,7 @@
         <v>54</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2" t="s">
@@ -5638,14 +6121,14 @@
         <v>53</v>
       </c>
       <c r="AP34" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4">
         <v>46000.38612914352</v>
       </c>
       <c r="AS34" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AT34" s="2"/>
       <c r="AU34" s="2" t="s">
@@ -5680,7 +6163,7 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -5689,16 +6172,16 @@
       <c r="M35" s="6"/>
       <c r="N35" s="7"/>
       <c r="O35" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>338</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S35" s="6" t="s">
         <v>70</v>
@@ -5782,126 +6265,3046 @@
       <c r="AZ35" s="6"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="10" t="s">
+      <c r="R36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4">
+        <v>46000.38992061342</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>46000.38992061342</v>
+      </c>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ37" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK37" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP37" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8">
+        <v>46000.39550875</v>
+      </c>
+      <c r="AS37" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV37" s="8">
+        <v>46000.39550875</v>
+      </c>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4">
+        <v>46000.39631024306</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>46000.39631024306</v>
+      </c>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+    </row>
+    <row r="39" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM39" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP39" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8">
+        <v>46000.39713326389</v>
+      </c>
+      <c r="AS39" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV39" s="8">
+        <v>46000.39713326389</v>
+      </c>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+    </row>
+    <row r="40" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4">
+        <v>46000.40604605324</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV40" s="4">
+        <v>46000.40604605324</v>
+      </c>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z41" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP41" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8">
+        <v>46000.408378113425</v>
+      </c>
+      <c r="AS41" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV41" s="8">
+        <v>46000.408378113425</v>
+      </c>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6"/>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP42" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4">
+        <v>46000.41219043982</v>
+      </c>
+      <c r="AS42" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV42" s="4">
+        <v>46000.41219043982</v>
+      </c>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ43" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK43" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP43" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8">
+        <v>46000.41457511574</v>
+      </c>
+      <c r="AS43" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV43" s="8">
+        <v>46000.41457511574</v>
+      </c>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="6"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4">
+        <v>46000.41531054398</v>
+      </c>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV44" s="4">
+        <v>46000.41531054398</v>
+      </c>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ45" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP45" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8">
+        <v>46000.41942193287</v>
+      </c>
+      <c r="AS45" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV45" s="8">
+        <v>46000.41942193287</v>
+      </c>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP46" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4">
+        <v>46000.43758832176</v>
+      </c>
+      <c r="AS46" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV46" s="4">
+        <v>46000.43758832176</v>
+      </c>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z47" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ47" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="8">
+        <v>46000.44102837963</v>
+      </c>
+      <c r="AS47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV47" s="8">
+        <v>46000.44102837963</v>
+      </c>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP48" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4">
+        <v>46000.44337517361</v>
+      </c>
+      <c r="AS48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV48" s="4">
+        <v>46000.44337517361</v>
+      </c>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R49" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="P36" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="R36" s="10" t="s">
+      <c r="S49" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="U49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ49" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP49" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ49" s="8"/>
+      <c r="AR49" s="8">
+        <v>46000.45246255787</v>
+      </c>
+      <c r="AS49" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV49" s="8">
+        <v>46000.45246255787</v>
+      </c>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
+    </row>
+    <row r="50" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP50" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4">
+        <v>46000.45728027778</v>
+      </c>
+      <c r="AS50" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV50" s="4">
+        <v>46000.45728027778</v>
+      </c>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP51" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8">
+        <v>46000.66669319445</v>
+      </c>
+      <c r="AS51" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT51" s="6"/>
+      <c r="AU51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV51" s="8">
+        <v>46000.66669319445</v>
+      </c>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="6"/>
+      <c r="AY51" s="6"/>
+      <c r="AZ51" s="6"/>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4">
+        <v>46000.667815231485</v>
+      </c>
+      <c r="AS52" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV52" s="4">
+        <v>46000.667815231485</v>
+      </c>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP53" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="8">
+        <v>46000.668966087964</v>
+      </c>
+      <c r="AS53" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV53" s="8">
+        <v>46000.668966087964</v>
+      </c>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4">
+        <v>46000.67012414352</v>
+      </c>
+      <c r="AS54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV54" s="4">
+        <v>46000.67012414352</v>
+      </c>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z55" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP55" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ55" s="8"/>
+      <c r="AR55" s="8">
+        <v>46000.67650023148</v>
+      </c>
+      <c r="AS55" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT55" s="6"/>
+      <c r="AU55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV55" s="8">
+        <v>46000.67650023148</v>
+      </c>
+      <c r="AW55" s="6"/>
+      <c r="AX55" s="6"/>
+      <c r="AY55" s="6"/>
+      <c r="AZ55" s="6"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4">
+        <v>46000.67937760417</v>
+      </c>
+      <c r="AS56" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV56" s="4">
+        <v>46000.67937760417</v>
+      </c>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X57" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK57" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP57" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ57" s="8"/>
+      <c r="AR57" s="8">
+        <v>46000.68010896991</v>
+      </c>
+      <c r="AS57" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT57" s="6"/>
+      <c r="AU57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV57" s="8">
+        <v>46000.68010896991</v>
+      </c>
+      <c r="AW57" s="6"/>
+      <c r="AX57" s="6"/>
+      <c r="AY57" s="6"/>
+      <c r="AZ57" s="6"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4">
+        <v>46000.68173585648</v>
+      </c>
+      <c r="AS58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV58" s="4">
+        <v>46000.68173585648</v>
+      </c>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL59" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM59" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO59" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="8"/>
+      <c r="AR59" s="8">
+        <v>46000.68289280093</v>
+      </c>
+      <c r="AS59" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV59" s="8">
+        <v>46000.68401614584</v>
+      </c>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="R60" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="S36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="W36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC36" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK36" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL36" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM36" s="10" t="s">
+      <c r="S60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC60" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL60" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM60" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AN36" s="10" t="s">
+      <c r="AN60" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AO36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP36" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12">
-        <v>46000.38992061342</v>
-      </c>
-      <c r="AS36" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AT36" s="10"/>
-      <c r="AU36" s="10" t="s">
+      <c r="AO60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP60" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12">
+        <v>46000.68753895833</v>
+      </c>
+      <c r="AS60" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AV36" s="12">
-        <v>46000.38992061342</v>
-      </c>
-      <c r="AW36" s="10"/>
-      <c r="AX36" s="10"/>
-      <c r="AY36" s="10"/>
-      <c r="AZ36" s="10"/>
+      <c r="AV60" s="12">
+        <v>46000.68753895833</v>
+      </c>
+      <c r="AW60" s="10"/>
+      <c r="AX60" s="10"/>
+      <c r="AY60" s="10"/>
+      <c r="AZ60" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
